--- a/data/output/Pedido_Semana_07_21022026_interior.xlsx
+++ b/data/output/Pedido_Semana_07_21022026_interior.xlsx
@@ -1472,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>0</v>
@@ -1796,16 +1796,16 @@
         <v>3</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T16" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1958,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T18" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
         <v>0</v>
@@ -2201,16 +2201,16 @@
         <v>4</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U21" s="8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2768,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="2" t="n">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>10</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S35" s="2" t="n">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S36" s="2" t="n">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="2" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>6</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S43" s="2" t="n">
         <v>0</v>
@@ -4145,13 +4145,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T45" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="8" t="n">
         <v>0</v>
@@ -4226,13 +4226,13 @@
         <v>0</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T46" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="8" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="2" t="n">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>7</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="2" t="n">
         <v>0</v>
@@ -5279,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T59" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U59" s="8" t="n">
         <v>0</v>
@@ -6089,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" s="2" t="n">
         <v>3</v>
       </c>
       <c r="T69" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U69" s="8" t="n">
         <v>0</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" s="2" t="n">
         <v>0</v>
@@ -6413,16 +6413,16 @@
         <v>10</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S73" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T73" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U73" s="8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -6899,7 +6899,7 @@
         <v>2</v>
       </c>
       <c r="R79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" s="2" t="n">
         <v>0</v>
@@ -7142,13 +7142,13 @@
         <v>0</v>
       </c>
       <c r="R82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T82" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U82" s="8" t="n">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>3</v>
       </c>
       <c r="R84" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S84" s="2" t="n">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="R86" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" s="2" t="n">
         <v>0</v>
@@ -7628,16 +7628,16 @@
         <v>25</v>
       </c>
       <c r="R88" s="2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S88" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T88" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" s="8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" hidden="1">
@@ -7709,13 +7709,13 @@
         <v>0</v>
       </c>
       <c r="R89" s="2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="S89" s="2" t="n">
         <v>8</v>
       </c>
       <c r="T89" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U89" s="8" t="n">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>4</v>
       </c>
       <c r="R90" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S90" s="2" t="n">
         <v>0</v>
@@ -7871,13 +7871,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S91" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T91" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U91" s="8" t="n">
         <v>0</v>
@@ -7952,13 +7952,13 @@
         <v>0</v>
       </c>
       <c r="R92" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S92" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T92" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" s="8" t="n">
         <v>0</v>
@@ -8141,7 +8141,7 @@
         </is>
       </c>
       <c r="C97" s="5" t="n">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98">
